--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\validatingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,7 +668,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" t="s">

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -668,7 +668,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
